--- a/CougSat1-Ground/test/TelemetryPacketCalculator.xlsx
+++ b/CougSat1-Ground/test/TelemetryPacketCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\GitHub\CougSat1-Software\CougSat1-Ground\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8B371A-7C74-4FD4-81BA-2CCE2F195E6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9876EB42-26C1-4DF3-82DF-0C5F4B8CDBB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{2B14A9BF-534B-4EED-9B86-7C2EE2D06168}"/>
   </bookViews>
@@ -566,9 +566,6 @@
     <t>Current Deployables</t>
   </si>
   <si>
-    <t>PV Switching States</t>
-  </si>
-  <si>
     <t>Output Switching States</t>
   </si>
   <si>
@@ -708,6 +705,9 @@
   </si>
   <si>
     <t>Adjust the values and save the bytes to the packet using a hex editor</t>
+  </si>
+  <si>
+    <t>MPPT Switching States</t>
   </si>
 </sst>
 </file>
@@ -774,14 +774,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,7 +1101,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,18 +1116,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="A1" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1188,7 +1188,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B7" t="s">
@@ -1210,7 +1210,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -1230,7 +1230,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -1250,7 +1250,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -1270,7 +1270,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="10"/>
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -1290,7 +1290,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" t="s">
         <v>48</v>
       </c>
@@ -1310,7 +1310,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
         <v>50</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="10"/>
       <c r="B14" t="s">
         <v>51</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="10"/>
       <c r="B15" t="s">
         <v>53</v>
       </c>
@@ -1370,7 +1370,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>54</v>
       </c>
@@ -1390,7 +1390,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="10"/>
       <c r="B17" t="s">
         <v>55</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B18" t="s">
@@ -1428,13 +1428,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="10"/>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="7">
         <f ca="1">NOW()</f>
-        <v>43456.931264467596</v>
+        <v>43456.970840624999</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -1445,12 +1445,12 @@
       </c>
       <c r="F19" t="str">
         <f ca="1">IF(D19&lt;&gt;"",RIGHT(DEC2HEX(IF(D19="Time",(C19-DATE(1970,1,1))*86400,C19/VLOOKUP(D19,Enums!$G$2:$I$20,2,FALSE)),E19*2),E19*2),"")</f>
-        <v>5C1EB8CD</v>
+        <v>5C1EC628</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="10"/>
       <c r="B20" t="s">
         <v>59</v>
       </c>
@@ -1470,7 +1470,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="10"/>
       <c r="B21" t="s">
         <v>60</v>
       </c>
@@ -1490,7 +1490,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="10"/>
       <c r="B22" t="s">
         <v>64</v>
       </c>
@@ -1510,7 +1510,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B23" t="s">
@@ -1532,7 +1532,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="10"/>
       <c r="B24" t="s">
         <v>67</v>
       </c>
@@ -1552,7 +1552,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="10"/>
       <c r="B25" t="s">
         <v>68</v>
       </c>
@@ -1572,7 +1572,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="10"/>
       <c r="B26" t="s">
         <v>69</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="10"/>
       <c r="B27" t="s">
         <v>70</v>
       </c>
@@ -1612,7 +1612,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="A28" s="10"/>
       <c r="B28" t="s">
         <v>72</v>
       </c>
@@ -1632,7 +1632,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="10"/>
       <c r="B29" t="s">
         <v>71</v>
       </c>
@@ -1652,7 +1652,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="10"/>
       <c r="B30" t="s">
         <v>73</v>
       </c>
@@ -1672,7 +1672,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="10"/>
       <c r="B31" t="s">
         <v>74</v>
       </c>
@@ -1692,7 +1692,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="10"/>
       <c r="B32" t="s">
         <v>75</v>
       </c>
@@ -1712,7 +1712,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="10"/>
       <c r="B33" t="s">
         <v>76</v>
       </c>
@@ -1732,7 +1732,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="10"/>
       <c r="B34" t="s">
         <v>77</v>
       </c>
@@ -1752,7 +1752,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="10"/>
       <c r="B35" t="s">
         <v>78</v>
       </c>
@@ -1772,7 +1772,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="10"/>
       <c r="B36" t="s">
         <v>79</v>
       </c>
@@ -1792,7 +1792,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="10"/>
       <c r="B37" t="s">
         <v>80</v>
       </c>
@@ -1812,7 +1812,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="A38" s="10"/>
       <c r="B38" t="s">
         <v>81</v>
       </c>
@@ -1832,7 +1832,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="A39" s="10"/>
       <c r="B39" t="s">
         <v>82</v>
       </c>
@@ -1852,7 +1852,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="10"/>
       <c r="B40" t="s">
         <v>83</v>
       </c>
@@ -1872,7 +1872,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="10"/>
       <c r="B41" t="s">
         <v>84</v>
       </c>
@@ -1892,7 +1892,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
+      <c r="A42" s="10"/>
       <c r="B42" t="s">
         <v>85</v>
       </c>
@@ -1912,7 +1912,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B43" t="s">
@@ -1934,7 +1934,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A44" s="10"/>
       <c r="B44" t="s">
         <v>88</v>
       </c>
@@ -1954,7 +1954,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+      <c r="A45" s="10"/>
       <c r="B45" t="s">
         <v>89</v>
       </c>
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+      <c r="A46" s="10"/>
       <c r="B46" t="s">
         <v>90</v>
       </c>
@@ -1994,7 +1994,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
+      <c r="A47" s="10"/>
       <c r="B47" t="s">
         <v>91</v>
       </c>
@@ -2014,7 +2014,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
+      <c r="A48" s="10"/>
       <c r="B48" t="s">
         <v>92</v>
       </c>
@@ -2034,7 +2034,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+      <c r="A49" s="10"/>
       <c r="B49" t="s">
         <v>93</v>
       </c>
@@ -2054,7 +2054,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
+      <c r="A50" s="10"/>
       <c r="B50" t="s">
         <v>94</v>
       </c>
@@ -2074,7 +2074,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
+      <c r="A51" s="10"/>
       <c r="B51" t="s">
         <v>95</v>
       </c>
@@ -2094,7 +2094,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
+      <c r="A52" s="10"/>
       <c r="B52" t="s">
         <v>96</v>
       </c>
@@ -2114,7 +2114,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="10"/>
       <c r="B53" t="s">
         <v>97</v>
       </c>
@@ -2134,7 +2134,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="10"/>
       <c r="B54" t="s">
         <v>98</v>
       </c>
@@ -2154,7 +2154,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+      <c r="A55" s="10"/>
       <c r="B55" t="s">
         <v>99</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
+      <c r="A56" s="10"/>
       <c r="B56" t="s">
         <v>100</v>
       </c>
@@ -2194,7 +2194,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
+      <c r="A57" s="10"/>
       <c r="B57" t="s">
         <v>101</v>
       </c>
@@ -2214,7 +2214,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="10"/>
       <c r="B58" t="s">
         <v>102</v>
       </c>
@@ -2234,7 +2234,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="A59" s="10"/>
       <c r="B59" t="s">
         <v>103</v>
       </c>
@@ -2254,7 +2254,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="10"/>
       <c r="B60" t="s">
         <v>104</v>
       </c>
@@ -2274,7 +2274,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
+      <c r="A61" s="10"/>
       <c r="B61" t="s">
         <v>105</v>
       </c>
@@ -2294,7 +2294,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="10"/>
       <c r="B62" t="s">
         <v>106</v>
       </c>
@@ -2314,7 +2314,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="10"/>
       <c r="B63" t="s">
         <v>107</v>
       </c>
@@ -2334,7 +2334,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="10"/>
       <c r="B64" t="s">
         <v>108</v>
       </c>
@@ -2354,7 +2354,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="10"/>
       <c r="B65" t="s">
         <v>109</v>
       </c>
@@ -2374,7 +2374,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="10"/>
       <c r="B66" t="s">
         <v>110</v>
       </c>
@@ -2394,7 +2394,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
+      <c r="A67" s="10"/>
       <c r="B67" t="s">
         <v>111</v>
       </c>
@@ -2414,7 +2414,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="10"/>
       <c r="B68" t="s">
         <v>112</v>
       </c>
@@ -2434,7 +2434,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="10"/>
       <c r="B69" t="s">
         <v>113</v>
       </c>
@@ -2454,7 +2454,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
+      <c r="A70" s="10"/>
       <c r="B70" t="s">
         <v>114</v>
       </c>
@@ -2474,7 +2474,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
+      <c r="A71" s="10"/>
       <c r="B71" t="s">
         <v>115</v>
       </c>
@@ -2494,7 +2494,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
+      <c r="A72" s="10"/>
       <c r="B72" t="s">
         <v>116</v>
       </c>
@@ -2514,8 +2514,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>182</v>
+      <c r="A73" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="B73" t="s">
         <v>118</v>
@@ -2536,7 +2536,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
+      <c r="A74" s="10"/>
       <c r="B74" t="s">
         <v>119</v>
       </c>
@@ -2556,7 +2556,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
+      <c r="A75" s="10"/>
       <c r="B75" t="s">
         <v>120</v>
       </c>
@@ -2576,7 +2576,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
+      <c r="A76" s="10"/>
       <c r="B76" t="s">
         <v>121</v>
       </c>
@@ -2596,7 +2596,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
+      <c r="A77" s="10"/>
       <c r="B77" t="s">
         <v>122</v>
       </c>
@@ -2616,7 +2616,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="A78" s="10"/>
       <c r="B78" t="s">
         <v>123</v>
       </c>
@@ -2636,7 +2636,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
+      <c r="A79" s="10"/>
       <c r="B79" t="s">
         <v>124</v>
       </c>
@@ -2656,7 +2656,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
+      <c r="A80" s="10"/>
       <c r="B80" t="s">
         <v>125</v>
       </c>
@@ -2676,7 +2676,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
+      <c r="A81" s="10"/>
       <c r="B81" t="s">
         <v>126</v>
       </c>
@@ -2696,7 +2696,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="A82" s="10"/>
       <c r="B82" t="s">
         <v>127</v>
       </c>
@@ -2716,7 +2716,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="10"/>
       <c r="B83" t="s">
         <v>128</v>
       </c>
@@ -2736,7 +2736,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
+      <c r="A84" s="10"/>
       <c r="B84" t="s">
         <v>129</v>
       </c>
@@ -2756,7 +2756,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
+      <c r="A85" s="10"/>
       <c r="B85" t="s">
         <v>130</v>
       </c>
@@ -2776,7 +2776,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="10"/>
       <c r="B86" t="s">
         <v>131</v>
       </c>
@@ -2796,7 +2796,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
+      <c r="A87" s="10"/>
       <c r="B87" t="s">
         <v>132</v>
       </c>
@@ -2816,7 +2816,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
+      <c r="A88" s="10"/>
       <c r="B88" t="s">
         <v>133</v>
       </c>
@@ -2836,7 +2836,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
+      <c r="A89" s="10"/>
       <c r="B89" t="s">
         <v>134</v>
       </c>
@@ -2856,7 +2856,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
+      <c r="A90" s="10"/>
       <c r="B90" t="s">
         <v>135</v>
       </c>
@@ -2876,7 +2876,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
+      <c r="A91" s="10"/>
       <c r="B91" t="s">
         <v>136</v>
       </c>
@@ -2896,7 +2896,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
+      <c r="A92" s="10"/>
       <c r="B92" t="s">
         <v>137</v>
       </c>
@@ -2916,7 +2916,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
+      <c r="A93" s="10"/>
       <c r="B93" t="s">
         <v>138</v>
       </c>
@@ -2936,7 +2936,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
+      <c r="A94" s="10"/>
       <c r="B94" t="s">
         <v>139</v>
       </c>
@@ -2956,7 +2956,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
+      <c r="A95" s="10"/>
       <c r="B95" t="s">
         <v>140</v>
       </c>
@@ -2976,7 +2976,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
+      <c r="A96" s="10"/>
       <c r="B96" t="s">
         <v>141</v>
       </c>
@@ -2996,7 +2996,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
+      <c r="A97" s="10"/>
       <c r="B97" t="s">
         <v>142</v>
       </c>
@@ -3016,7 +3016,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
+      <c r="A98" s="10"/>
       <c r="B98" t="s">
         <v>143</v>
       </c>
@@ -3036,7 +3036,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
+      <c r="A99" s="10"/>
       <c r="B99" t="s">
         <v>144</v>
       </c>
@@ -3056,7 +3056,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
+      <c r="A100" s="10"/>
       <c r="B100" t="s">
         <v>145</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
+      <c r="A101" s="10"/>
       <c r="B101" t="s">
         <v>146</v>
       </c>
@@ -3096,7 +3096,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
+      <c r="A102" s="10"/>
       <c r="B102" t="s">
         <v>147</v>
       </c>
@@ -3116,7 +3116,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
+      <c r="A103" s="10"/>
       <c r="B103" t="s">
         <v>148</v>
       </c>
@@ -3136,7 +3136,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
+      <c r="A104" s="10"/>
       <c r="B104" t="s">
         <v>149</v>
       </c>
@@ -3156,7 +3156,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
+      <c r="A105" s="10"/>
       <c r="B105" t="s">
         <v>150</v>
       </c>
@@ -3176,7 +3176,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
+      <c r="A106" s="10"/>
       <c r="B106" t="s">
         <v>151</v>
       </c>
@@ -3196,7 +3196,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
+      <c r="A107" s="10"/>
       <c r="B107" t="s">
         <v>152</v>
       </c>
@@ -3216,7 +3216,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
+      <c r="A108" s="10"/>
       <c r="B108" t="s">
         <v>153</v>
       </c>
@@ -3236,7 +3236,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
+      <c r="A109" s="10"/>
       <c r="B109" t="s">
         <v>154</v>
       </c>
@@ -3256,7 +3256,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
+      <c r="A110" s="10"/>
       <c r="B110" t="s">
         <v>155</v>
       </c>
@@ -3276,7 +3276,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
+      <c r="A111" s="10"/>
       <c r="B111" t="s">
         <v>156</v>
       </c>
@@ -3296,7 +3296,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
+      <c r="A112" s="10"/>
       <c r="B112" t="s">
         <v>157</v>
       </c>
@@ -3316,7 +3316,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
+      <c r="A113" s="10"/>
       <c r="B113" t="s">
         <v>158</v>
       </c>
@@ -3336,7 +3336,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
+      <c r="A114" s="10"/>
       <c r="B114" t="s">
         <v>159</v>
       </c>
@@ -3356,7 +3356,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
+      <c r="A115" s="10"/>
       <c r="B115" t="s">
         <v>160</v>
       </c>
@@ -3376,7 +3376,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
+      <c r="A116" s="10"/>
       <c r="B116" t="s">
         <v>161</v>
       </c>
@@ -3396,7 +3396,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
+      <c r="A117" s="10"/>
       <c r="B117" t="s">
         <v>162</v>
       </c>
@@ -3416,7 +3416,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
+      <c r="A118" s="10"/>
       <c r="B118" t="s">
         <v>163</v>
       </c>
@@ -3436,7 +3436,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
+      <c r="A119" s="10"/>
       <c r="B119" t="s">
         <v>164</v>
       </c>
@@ -3456,7 +3456,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
+      <c r="A120" s="10"/>
       <c r="B120" t="s">
         <v>165</v>
       </c>
@@ -3476,7 +3476,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
+      <c r="A121" s="10"/>
       <c r="B121" t="s">
         <v>166</v>
       </c>
@@ -3496,7 +3496,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
+      <c r="A122" s="10"/>
       <c r="B122" t="s">
         <v>167</v>
       </c>
@@ -3516,7 +3516,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
+      <c r="A123" s="10"/>
       <c r="B123" t="s">
         <v>168</v>
       </c>
@@ -3536,7 +3536,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
+      <c r="A124" s="10"/>
       <c r="B124" t="s">
         <v>169</v>
       </c>
@@ -3556,7 +3556,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
+      <c r="A125" s="10"/>
       <c r="B125" t="s">
         <v>170</v>
       </c>
@@ -3576,7 +3576,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
+      <c r="A126" s="10"/>
       <c r="B126" t="s">
         <v>171</v>
       </c>
@@ -3596,7 +3596,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
+      <c r="A127" s="10"/>
       <c r="B127" t="s">
         <v>172</v>
       </c>
@@ -3616,7 +3616,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
+      <c r="A128" s="10"/>
       <c r="B128" t="s">
         <v>173</v>
       </c>
@@ -3636,7 +3636,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
+      <c r="A129" s="10"/>
       <c r="B129" t="s">
         <v>174</v>
       </c>
@@ -3656,7 +3656,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
+      <c r="A130" s="10"/>
       <c r="B130" t="s">
         <v>175</v>
       </c>
@@ -3676,7 +3676,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="8"/>
+      <c r="A131" s="10"/>
       <c r="B131" t="s">
         <v>176</v>
       </c>
@@ -3696,9 +3696,9 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="8"/>
+      <c r="A132" s="10"/>
       <c r="B132" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="C132">
         <f>'Switching States'!E1</f>
@@ -3717,9 +3717,9 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="8"/>
+      <c r="A133" s="10"/>
       <c r="B133" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C133">
         <f>'Switching States'!K1</f>
@@ -3738,9 +3738,9 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
+      <c r="A134" s="10"/>
       <c r="B134" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C134">
         <f>'Switching States'!Q1</f>
@@ -3776,13 +3776,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A43:A72"/>
+    <mergeCell ref="A73:A134"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A7:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A42"/>
-    <mergeCell ref="A43:A72"/>
-    <mergeCell ref="A73:A134"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3818,7 +3818,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3843,7 +3843,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3853,7 +3853,7 @@
         <v>22726</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -3863,7 +3863,7 @@
         <v>491115665606</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
@@ -3889,55 +3889,55 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3969,7 +3969,7 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -4003,7 +4003,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -4019,7 +4019,7 @@
         <v>6</v>
       </c>
       <c r="M5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -4053,7 +4053,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -4069,7 +4069,7 @@
         <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N6">
         <v>4</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4103,7 +4103,7 @@
         <v>198</v>
       </c>
       <c r="G7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -4119,7 +4119,7 @@
         <v>198</v>
       </c>
       <c r="M7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N7">
         <v>6</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -4153,7 +4153,7 @@
         <v>198</v>
       </c>
       <c r="G8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8">
         <v>8</v>
@@ -4169,7 +4169,7 @@
         <v>198</v>
       </c>
       <c r="M8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N8">
         <v>8</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -4203,7 +4203,7 @@
         <v>2246</v>
       </c>
       <c r="G9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -4219,7 +4219,7 @@
         <v>2246</v>
       </c>
       <c r="M9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N9">
         <v>10</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -4253,7 +4253,7 @@
         <v>6342</v>
       </c>
       <c r="G10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H10">
         <v>12</v>
@@ -4269,7 +4269,7 @@
         <v>6342</v>
       </c>
       <c r="M10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N10">
         <v>12</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -4303,7 +4303,7 @@
         <v>22726</v>
       </c>
       <c r="G11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H11">
         <v>14</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H12">
         <v>16</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H13">
         <v>18</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H14">
         <v>20</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H15">
         <v>22</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H16">
         <v>24</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H17">
         <v>26</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="18" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H18">
         <v>28</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H19">
         <v>30</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="20" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H20">
         <v>32</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H21">
         <v>34</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="22" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H22">
         <v>36</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="23" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H23">
         <v>38</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H17" s="6">
         <v>1</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H18" s="6">
         <v>1</v>

--- a/CougSat1-Ground/test/TelemetryPacketCalculator.xlsx
+++ b/CougSat1-Ground/test/TelemetryPacketCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\GitHub\CougSat1-Software\CougSat1-Ground\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9876EB42-26C1-4DF3-82DF-0C5F4B8CDBB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623717E3-8F0A-4460-ABDC-D96847F70352}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{2B14A9BF-534B-4EED-9B86-7C2EE2D06168}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="227">
   <si>
     <t>Parameter</t>
   </si>
@@ -708,6 +708,12 @@
   </si>
   <si>
     <t>MPPT Switching States</t>
+  </si>
+  <si>
+    <t>Energy Battery 0</t>
+  </si>
+  <si>
+    <t>Energy Battery 1</t>
   </si>
 </sst>
 </file>
@@ -774,14 +780,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,11 +1103,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D72089F-6ED8-4EC3-BFBA-8726392368F8}">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
+      <pane ySplit="4" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,24 +1122,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1175,8 +1181,8 @@
         <v>24</v>
       </c>
       <c r="C6" s="4">
-        <f>SUM(E7:E134)</f>
-        <v>238</v>
+        <f>SUM(E7:E136)</f>
+        <v>240</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
@@ -1188,7 +1194,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B7" t="s">
@@ -1210,7 +1216,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="8"/>
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -1230,7 +1236,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="8"/>
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -1250,7 +1256,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="8"/>
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -1270,7 +1276,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="8"/>
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -1290,7 +1296,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="8"/>
       <c r="B12" t="s">
         <v>48</v>
       </c>
@@ -1310,7 +1316,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>50</v>
       </c>
@@ -1330,7 +1336,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="8"/>
       <c r="B14" t="s">
         <v>51</v>
       </c>
@@ -1350,7 +1356,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>53</v>
       </c>
@@ -1370,7 +1376,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="8"/>
       <c r="B16" t="s">
         <v>54</v>
       </c>
@@ -1390,7 +1396,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="8"/>
       <c r="B17" t="s">
         <v>55</v>
       </c>
@@ -1410,7 +1416,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B18" t="s">
@@ -1428,13 +1434,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="8"/>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="7">
         <f ca="1">NOW()</f>
-        <v>43456.970840624999</v>
+        <v>43457.758848379628</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -1445,12 +1451,12 @@
       </c>
       <c r="F19" t="str">
         <f ca="1">IF(D19&lt;&gt;"",RIGHT(DEC2HEX(IF(D19="Time",(C19-DATE(1970,1,1))*86400,C19/VLOOKUP(D19,Enums!$G$2:$I$20,2,FALSE)),E19*2),E19*2),"")</f>
-        <v>5C1EC628</v>
+        <v>5C1FD01C</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="8"/>
       <c r="B20" t="s">
         <v>59</v>
       </c>
@@ -1470,7 +1476,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="8"/>
       <c r="B21" t="s">
         <v>60</v>
       </c>
@@ -1490,7 +1496,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="8"/>
       <c r="B22" t="s">
         <v>64</v>
       </c>
@@ -1510,7 +1516,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B23" t="s">
@@ -1532,7 +1538,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="8"/>
       <c r="B24" t="s">
         <v>67</v>
       </c>
@@ -1552,7 +1558,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="8"/>
       <c r="B25" t="s">
         <v>68</v>
       </c>
@@ -1572,7 +1578,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="8"/>
       <c r="B26" t="s">
         <v>69</v>
       </c>
@@ -1592,7 +1598,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="8"/>
       <c r="B27" t="s">
         <v>70</v>
       </c>
@@ -1612,7 +1618,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="8"/>
       <c r="B28" t="s">
         <v>72</v>
       </c>
@@ -1632,7 +1638,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="8"/>
       <c r="B29" t="s">
         <v>71</v>
       </c>
@@ -1652,7 +1658,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="8"/>
       <c r="B30" t="s">
         <v>73</v>
       </c>
@@ -1672,7 +1678,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="8"/>
       <c r="B31" t="s">
         <v>74</v>
       </c>
@@ -1692,7 +1698,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="8"/>
       <c r="B32" t="s">
         <v>75</v>
       </c>
@@ -1712,7 +1718,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+      <c r="A33" s="8"/>
       <c r="B33" t="s">
         <v>76</v>
       </c>
@@ -1732,7 +1738,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="8"/>
       <c r="B34" t="s">
         <v>77</v>
       </c>
@@ -1752,7 +1758,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="8"/>
       <c r="B35" t="s">
         <v>78</v>
       </c>
@@ -1772,7 +1778,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="8"/>
       <c r="B36" t="s">
         <v>79</v>
       </c>
@@ -1792,7 +1798,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="8"/>
       <c r="B37" t="s">
         <v>80</v>
       </c>
@@ -1812,7 +1818,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+      <c r="A38" s="8"/>
       <c r="B38" t="s">
         <v>81</v>
       </c>
@@ -1832,7 +1838,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+      <c r="A39" s="8"/>
       <c r="B39" t="s">
         <v>82</v>
       </c>
@@ -1852,7 +1858,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+      <c r="A40" s="8"/>
       <c r="B40" t="s">
         <v>83</v>
       </c>
@@ -1872,7 +1878,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
+      <c r="A41" s="8"/>
       <c r="B41" t="s">
         <v>84</v>
       </c>
@@ -1892,7 +1898,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+      <c r="A42" s="8"/>
       <c r="B42" t="s">
         <v>85</v>
       </c>
@@ -1912,7 +1918,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>117</v>
       </c>
       <c r="B43" t="s">
@@ -1934,7 +1940,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="8"/>
       <c r="B44" t="s">
         <v>88</v>
       </c>
@@ -1954,7 +1960,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+      <c r="A45" s="8"/>
       <c r="B45" t="s">
         <v>89</v>
       </c>
@@ -1974,7 +1980,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
+      <c r="A46" s="8"/>
       <c r="B46" t="s">
         <v>90</v>
       </c>
@@ -1994,7 +2000,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+      <c r="A47" s="8"/>
       <c r="B47" t="s">
         <v>91</v>
       </c>
@@ -2014,7 +2020,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+      <c r="A48" s="8"/>
       <c r="B48" t="s">
         <v>92</v>
       </c>
@@ -2034,7 +2040,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
+      <c r="A49" s="8"/>
       <c r="B49" t="s">
         <v>93</v>
       </c>
@@ -2054,7 +2060,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+      <c r="A50" s="8"/>
       <c r="B50" t="s">
         <v>94</v>
       </c>
@@ -2074,7 +2080,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="8"/>
       <c r="B51" t="s">
         <v>95</v>
       </c>
@@ -2094,7 +2100,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
+      <c r="A52" s="8"/>
       <c r="B52" t="s">
         <v>96</v>
       </c>
@@ -2114,7 +2120,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
+      <c r="A53" s="8"/>
       <c r="B53" t="s">
         <v>97</v>
       </c>
@@ -2134,7 +2140,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
+      <c r="A54" s="8"/>
       <c r="B54" t="s">
         <v>98</v>
       </c>
@@ -2154,7 +2160,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
+      <c r="A55" s="8"/>
       <c r="B55" t="s">
         <v>99</v>
       </c>
@@ -2174,7 +2180,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+      <c r="A56" s="8"/>
       <c r="B56" t="s">
         <v>100</v>
       </c>
@@ -2194,7 +2200,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
+      <c r="A57" s="8"/>
       <c r="B57" t="s">
         <v>101</v>
       </c>
@@ -2214,7 +2220,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
+      <c r="A58" s="8"/>
       <c r="B58" t="s">
         <v>102</v>
       </c>
@@ -2234,7 +2240,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
+      <c r="A59" s="8"/>
       <c r="B59" t="s">
         <v>103</v>
       </c>
@@ -2254,7 +2260,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+      <c r="A60" s="8"/>
       <c r="B60" t="s">
         <v>104</v>
       </c>
@@ -2274,7 +2280,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
+      <c r="A61" s="8"/>
       <c r="B61" t="s">
         <v>105</v>
       </c>
@@ -2294,7 +2300,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+      <c r="A62" s="8"/>
       <c r="B62" t="s">
         <v>106</v>
       </c>
@@ -2314,7 +2320,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+      <c r="A63" s="8"/>
       <c r="B63" t="s">
         <v>107</v>
       </c>
@@ -2334,7 +2340,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
+      <c r="A64" s="8"/>
       <c r="B64" t="s">
         <v>108</v>
       </c>
@@ -2354,7 +2360,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
+      <c r="A65" s="8"/>
       <c r="B65" t="s">
         <v>109</v>
       </c>
@@ -2374,7 +2380,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
+      <c r="A66" s="8"/>
       <c r="B66" t="s">
         <v>110</v>
       </c>
@@ -2394,7 +2400,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
+      <c r="A67" s="8"/>
       <c r="B67" t="s">
         <v>111</v>
       </c>
@@ -2414,7 +2420,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
+      <c r="A68" s="8"/>
       <c r="B68" t="s">
         <v>112</v>
       </c>
@@ -2434,7 +2440,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
+      <c r="A69" s="8"/>
       <c r="B69" t="s">
         <v>113</v>
       </c>
@@ -2454,7 +2460,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
+      <c r="A70" s="8"/>
       <c r="B70" t="s">
         <v>114</v>
       </c>
@@ -2474,7 +2480,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+      <c r="A71" s="8"/>
       <c r="B71" t="s">
         <v>115</v>
       </c>
@@ -2494,7 +2500,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
+      <c r="A72" s="8"/>
       <c r="B72" t="s">
         <v>116</v>
       </c>
@@ -2514,7 +2520,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="8" t="s">
         <v>181</v>
       </c>
       <c r="B73" t="s">
@@ -2536,7 +2542,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
+      <c r="A74" s="8"/>
       <c r="B74" t="s">
         <v>119</v>
       </c>
@@ -2556,7 +2562,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
+      <c r="A75" s="8"/>
       <c r="B75" t="s">
         <v>120</v>
       </c>
@@ -2576,7 +2582,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
+      <c r="A76" s="8"/>
       <c r="B76" t="s">
         <v>121</v>
       </c>
@@ -2596,7 +2602,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
+      <c r="A77" s="8"/>
       <c r="B77" t="s">
         <v>122</v>
       </c>
@@ -2616,7 +2622,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
+      <c r="A78" s="8"/>
       <c r="B78" t="s">
         <v>123</v>
       </c>
@@ -2636,7 +2642,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
+      <c r="A79" s="8"/>
       <c r="B79" t="s">
         <v>124</v>
       </c>
@@ -2656,7 +2662,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
+      <c r="A80" s="8"/>
       <c r="B80" t="s">
         <v>125</v>
       </c>
@@ -2676,7 +2682,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
+      <c r="A81" s="8"/>
       <c r="B81" t="s">
         <v>126</v>
       </c>
@@ -2696,7 +2702,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
+      <c r="A82" s="8"/>
       <c r="B82" t="s">
         <v>127</v>
       </c>
@@ -2716,7 +2722,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
+      <c r="A83" s="8"/>
       <c r="B83" t="s">
         <v>128</v>
       </c>
@@ -2736,7 +2742,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
+      <c r="A84" s="8"/>
       <c r="B84" t="s">
         <v>129</v>
       </c>
@@ -2756,7 +2762,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
+      <c r="A85" s="8"/>
       <c r="B85" t="s">
         <v>130</v>
       </c>
@@ -2776,7 +2782,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
+      <c r="A86" s="8"/>
       <c r="B86" t="s">
         <v>131</v>
       </c>
@@ -2796,7 +2802,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
+      <c r="A87" s="8"/>
       <c r="B87" t="s">
         <v>132</v>
       </c>
@@ -2816,7 +2822,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
+      <c r="A88" s="8"/>
       <c r="B88" t="s">
         <v>133</v>
       </c>
@@ -2836,7 +2842,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
+      <c r="A89" s="8"/>
       <c r="B89" t="s">
         <v>134</v>
       </c>
@@ -2856,7 +2862,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
+      <c r="A90" s="8"/>
       <c r="B90" t="s">
         <v>135</v>
       </c>
@@ -2876,7 +2882,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
+      <c r="A91" s="8"/>
       <c r="B91" t="s">
         <v>136</v>
       </c>
@@ -2896,7 +2902,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
+      <c r="A92" s="8"/>
       <c r="B92" t="s">
         <v>137</v>
       </c>
@@ -2916,7 +2922,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
+      <c r="A93" s="8"/>
       <c r="B93" t="s">
         <v>138</v>
       </c>
@@ -2936,7 +2942,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
+      <c r="A94" s="8"/>
       <c r="B94" t="s">
         <v>139</v>
       </c>
@@ -2956,7 +2962,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
+      <c r="A95" s="8"/>
       <c r="B95" t="s">
         <v>140</v>
       </c>
@@ -2976,7 +2982,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
+      <c r="A96" s="8"/>
       <c r="B96" t="s">
         <v>141</v>
       </c>
@@ -2996,7 +3002,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
+      <c r="A97" s="8"/>
       <c r="B97" t="s">
         <v>142</v>
       </c>
@@ -3016,7 +3022,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
+      <c r="A98" s="8"/>
       <c r="B98" t="s">
         <v>143</v>
       </c>
@@ -3036,7 +3042,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
+      <c r="A99" s="8"/>
       <c r="B99" t="s">
         <v>144</v>
       </c>
@@ -3056,7 +3062,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
+      <c r="A100" s="8"/>
       <c r="B100" t="s">
         <v>145</v>
       </c>
@@ -3076,55 +3082,55 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
+      <c r="A101" s="8"/>
       <c r="B101" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="C101">
-        <v>3.31</v>
+        <v>12348</v>
       </c>
       <c r="D101" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E101" s="4">
         <f>IF(D101&lt;&gt;"",VLOOKUP(D101,Enums!$G$2:$I$20,3,FALSE),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" t="str">
         <f>IF(D101&lt;&gt;"",RIGHT(DEC2HEX(IF(D101="Time",(C101-DATE(1970,1,1))*86400,C101/VLOOKUP(D101,Enums!$G$2:$I$20,2,FALSE)),E101*2),E101*2),"")</f>
-        <v>5632</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
+      <c r="A102" s="8"/>
       <c r="B102" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="C102">
-        <v>3.32</v>
+        <v>78410</v>
       </c>
       <c r="D102" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E102" s="4">
         <f>IF(D102&lt;&gt;"",VLOOKUP(D102,Enums!$G$2:$I$20,3,FALSE),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" t="str">
         <f>IF(D102&lt;&gt;"",RIGHT(DEC2HEX(IF(D102="Time",(C102-DATE(1970,1,1))*86400,C102/VLOOKUP(D102,Enums!$G$2:$I$20,2,FALSE)),E102*2),E102*2),"")</f>
-        <v>5675</v>
+        <v>9C</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
+      <c r="A103" s="8"/>
       <c r="B103" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C103">
-        <v>1.3</v>
+        <v>3.31</v>
       </c>
       <c r="D103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E103" s="4">
         <f>IF(D103&lt;&gt;"",VLOOKUP(D103,Enums!$G$2:$I$20,3,FALSE),"")</f>
@@ -3132,19 +3138,19 @@
       </c>
       <c r="F103" t="str">
         <f>IF(D103&lt;&gt;"",RIGHT(DEC2HEX(IF(D103="Time",(C103-DATE(1970,1,1))*86400,C103/VLOOKUP(D103,Enums!$G$2:$I$20,2,FALSE)),E103*2),E103*2),"")</f>
-        <v>21DA</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
+      <c r="A104" s="8"/>
       <c r="B104" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C104">
-        <v>0.9</v>
+        <v>3.32</v>
       </c>
       <c r="D104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E104" s="4">
         <f>IF(D104&lt;&gt;"",VLOOKUP(D104,Enums!$G$2:$I$20,3,FALSE),"")</f>
@@ -3152,16 +3158,16 @@
       </c>
       <c r="F104" t="str">
         <f>IF(D104&lt;&gt;"",RIGHT(DEC2HEX(IF(D104="Time",(C104-DATE(1970,1,1))*86400,C104/VLOOKUP(D104,Enums!$G$2:$I$20,2,FALSE)),E104*2),E104*2),"")</f>
-        <v>1770</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
+      <c r="A105" s="8"/>
       <c r="B105" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C105">
-        <v>0.01</v>
+        <v>1.3</v>
       </c>
       <c r="D105" t="s">
         <v>3</v>
@@ -3172,16 +3178,16 @@
       </c>
       <c r="F105" t="str">
         <f>IF(D105&lt;&gt;"",RIGHT(DEC2HEX(IF(D105="Time",(C105-DATE(1970,1,1))*86400,C105/VLOOKUP(D105,Enums!$G$2:$I$20,2,FALSE)),E105*2),E105*2),"")</f>
-        <v>0042</v>
+        <v>21DA</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
+      <c r="A106" s="8"/>
       <c r="B106" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C106">
-        <v>0.02</v>
+        <v>0.9</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
@@ -3192,16 +3198,16 @@
       </c>
       <c r="F106" t="str">
         <f>IF(D106&lt;&gt;"",RIGHT(DEC2HEX(IF(D106="Time",(C106-DATE(1970,1,1))*86400,C106/VLOOKUP(D106,Enums!$G$2:$I$20,2,FALSE)),E106*2),E106*2),"")</f>
-        <v>0085</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
+      <c r="A107" s="8"/>
       <c r="B107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C107">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
@@ -3212,16 +3218,16 @@
       </c>
       <c r="F107" t="str">
         <f>IF(D107&lt;&gt;"",RIGHT(DEC2HEX(IF(D107="Time",(C107-DATE(1970,1,1))*86400,C107/VLOOKUP(D107,Enums!$G$2:$I$20,2,FALSE)),E107*2),E107*2),"")</f>
-        <v>00C8</v>
+        <v>0042</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
+      <c r="A108" s="8"/>
       <c r="B108" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C108">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
@@ -3232,16 +3238,16 @@
       </c>
       <c r="F108" t="str">
         <f>IF(D108&lt;&gt;"",RIGHT(DEC2HEX(IF(D108="Time",(C108-DATE(1970,1,1))*86400,C108/VLOOKUP(D108,Enums!$G$2:$I$20,2,FALSE)),E108*2),E108*2),"")</f>
-        <v>010A</v>
+        <v>0085</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
+      <c r="A109" s="8"/>
       <c r="B109" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C109">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -3252,16 +3258,16 @@
       </c>
       <c r="F109" t="str">
         <f>IF(D109&lt;&gt;"",RIGHT(DEC2HEX(IF(D109="Time",(C109-DATE(1970,1,1))*86400,C109/VLOOKUP(D109,Enums!$G$2:$I$20,2,FALSE)),E109*2),E109*2),"")</f>
-        <v>014D</v>
+        <v>00C8</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
+      <c r="A110" s="8"/>
       <c r="B110" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C110">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -3272,16 +3278,16 @@
       </c>
       <c r="F110" t="str">
         <f>IF(D110&lt;&gt;"",RIGHT(DEC2HEX(IF(D110="Time",(C110-DATE(1970,1,1))*86400,C110/VLOOKUP(D110,Enums!$G$2:$I$20,2,FALSE)),E110*2),E110*2),"")</f>
-        <v>0190</v>
+        <v>010A</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
+      <c r="A111" s="8"/>
       <c r="B111" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C111">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D111" t="s">
         <v>3</v>
@@ -3292,16 +3298,16 @@
       </c>
       <c r="F111" t="str">
         <f>IF(D111&lt;&gt;"",RIGHT(DEC2HEX(IF(D111="Time",(C111-DATE(1970,1,1))*86400,C111/VLOOKUP(D111,Enums!$G$2:$I$20,2,FALSE)),E111*2),E111*2),"")</f>
-        <v>01D2</v>
+        <v>014D</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
+      <c r="A112" s="8"/>
       <c r="B112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C112">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="D112" t="s">
         <v>3</v>
@@ -3312,16 +3318,16 @@
       </c>
       <c r="F112" t="str">
         <f>IF(D112&lt;&gt;"",RIGHT(DEC2HEX(IF(D112="Time",(C112-DATE(1970,1,1))*86400,C112/VLOOKUP(D112,Enums!$G$2:$I$20,2,FALSE)),E112*2),E112*2),"")</f>
-        <v>0215</v>
+        <v>0190</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
+      <c r="A113" s="8"/>
       <c r="B113" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C113">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D113" t="s">
         <v>3</v>
@@ -3332,16 +3338,16 @@
       </c>
       <c r="F113" t="str">
         <f>IF(D113&lt;&gt;"",RIGHT(DEC2HEX(IF(D113="Time",(C113-DATE(1970,1,1))*86400,C113/VLOOKUP(D113,Enums!$G$2:$I$20,2,FALSE)),E113*2),E113*2),"")</f>
-        <v>0258</v>
+        <v>01D2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="10"/>
+      <c r="A114" s="8"/>
       <c r="B114" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C114">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -3352,16 +3358,16 @@
       </c>
       <c r="F114" t="str">
         <f>IF(D114&lt;&gt;"",RIGHT(DEC2HEX(IF(D114="Time",(C114-DATE(1970,1,1))*86400,C114/VLOOKUP(D114,Enums!$G$2:$I$20,2,FALSE)),E114*2),E114*2),"")</f>
-        <v>029A</v>
+        <v>0215</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
+      <c r="A115" s="8"/>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C115">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
@@ -3372,16 +3378,16 @@
       </c>
       <c r="F115" t="str">
         <f>IF(D115&lt;&gt;"",RIGHT(DEC2HEX(IF(D115="Time",(C115-DATE(1970,1,1))*86400,C115/VLOOKUP(D115,Enums!$G$2:$I$20,2,FALSE)),E115*2),E115*2),"")</f>
-        <v>02DD</v>
+        <v>0258</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
+      <c r="A116" s="8"/>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C116">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="D116" t="s">
         <v>3</v>
@@ -3392,16 +3398,16 @@
       </c>
       <c r="F116" t="str">
         <f>IF(D116&lt;&gt;"",RIGHT(DEC2HEX(IF(D116="Time",(C116-DATE(1970,1,1))*86400,C116/VLOOKUP(D116,Enums!$G$2:$I$20,2,FALSE)),E116*2),E116*2),"")</f>
-        <v>0320</v>
+        <v>029A</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
+      <c r="A117" s="8"/>
       <c r="B117" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C117">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="D117" t="s">
         <v>3</v>
@@ -3412,16 +3418,16 @@
       </c>
       <c r="F117" t="str">
         <f>IF(D117&lt;&gt;"",RIGHT(DEC2HEX(IF(D117="Time",(C117-DATE(1970,1,1))*86400,C117/VLOOKUP(D117,Enums!$G$2:$I$20,2,FALSE)),E117*2),E117*2),"")</f>
-        <v>0362</v>
+        <v>02DD</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
+      <c r="A118" s="8"/>
       <c r="B118" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C118">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
@@ -3432,16 +3438,16 @@
       </c>
       <c r="F118" t="str">
         <f>IF(D118&lt;&gt;"",RIGHT(DEC2HEX(IF(D118="Time",(C118-DATE(1970,1,1))*86400,C118/VLOOKUP(D118,Enums!$G$2:$I$20,2,FALSE)),E118*2),E118*2),"")</f>
-        <v>0085</v>
+        <v>0320</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
+      <c r="A119" s="8"/>
       <c r="B119" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C119">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
@@ -3452,16 +3458,16 @@
       </c>
       <c r="F119" t="str">
         <f>IF(D119&lt;&gt;"",RIGHT(DEC2HEX(IF(D119="Time",(C119-DATE(1970,1,1))*86400,C119/VLOOKUP(D119,Enums!$G$2:$I$20,2,FALSE)),E119*2),E119*2),"")</f>
-        <v>010A</v>
+        <v>0362</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
+      <c r="A120" s="8"/>
       <c r="B120" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C120">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
@@ -3472,16 +3478,16 @@
       </c>
       <c r="F120" t="str">
         <f>IF(D120&lt;&gt;"",RIGHT(DEC2HEX(IF(D120="Time",(C120-DATE(1970,1,1))*86400,C120/VLOOKUP(D120,Enums!$G$2:$I$20,2,FALSE)),E120*2),E120*2),"")</f>
-        <v>0190</v>
+        <v>0085</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="10"/>
+      <c r="A121" s="8"/>
       <c r="B121" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C121">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="D121" t="s">
         <v>3</v>
@@ -3492,16 +3498,16 @@
       </c>
       <c r="F121" t="str">
         <f>IF(D121&lt;&gt;"",RIGHT(DEC2HEX(IF(D121="Time",(C121-DATE(1970,1,1))*86400,C121/VLOOKUP(D121,Enums!$G$2:$I$20,2,FALSE)),E121*2),E121*2),"")</f>
-        <v>0215</v>
+        <v>010A</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
+      <c r="A122" s="8"/>
       <c r="B122" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C122">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="D122" t="s">
         <v>3</v>
@@ -3512,16 +3518,16 @@
       </c>
       <c r="F122" t="str">
         <f>IF(D122&lt;&gt;"",RIGHT(DEC2HEX(IF(D122="Time",(C122-DATE(1970,1,1))*86400,C122/VLOOKUP(D122,Enums!$G$2:$I$20,2,FALSE)),E122*2),E122*2),"")</f>
-        <v>029A</v>
+        <v>0190</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
+      <c r="A123" s="8"/>
       <c r="B123" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C123">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="D123" t="s">
         <v>3</v>
@@ -3532,16 +3538,16 @@
       </c>
       <c r="F123" t="str">
         <f>IF(D123&lt;&gt;"",RIGHT(DEC2HEX(IF(D123="Time",(C123-DATE(1970,1,1))*86400,C123/VLOOKUP(D123,Enums!$G$2:$I$20,2,FALSE)),E123*2),E123*2),"")</f>
-        <v>0320</v>
+        <v>0215</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
+      <c r="A124" s="8"/>
       <c r="B124" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C124">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D124" t="s">
         <v>3</v>
@@ -3552,16 +3558,16 @@
       </c>
       <c r="F124" t="str">
         <f>IF(D124&lt;&gt;"",RIGHT(DEC2HEX(IF(D124="Time",(C124-DATE(1970,1,1))*86400,C124/VLOOKUP(D124,Enums!$G$2:$I$20,2,FALSE)),E124*2),E124*2),"")</f>
-        <v>03A5</v>
+        <v>029A</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
+      <c r="A125" s="8"/>
       <c r="B125" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C125">
-        <v>1E-3</v>
+        <v>0.12</v>
       </c>
       <c r="D125" t="s">
         <v>3</v>
@@ -3572,16 +3578,16 @@
       </c>
       <c r="F125" t="str">
         <f>IF(D125&lt;&gt;"",RIGHT(DEC2HEX(IF(D125="Time",(C125-DATE(1970,1,1))*86400,C125/VLOOKUP(D125,Enums!$G$2:$I$20,2,FALSE)),E125*2),E125*2),"")</f>
-        <v>0006</v>
+        <v>0320</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="10"/>
+      <c r="A126" s="8"/>
       <c r="B126" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C126">
-        <v>1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
@@ -3592,13 +3598,13 @@
       </c>
       <c r="F126" t="str">
         <f>IF(D126&lt;&gt;"",RIGHT(DEC2HEX(IF(D126="Time",(C126-DATE(1970,1,1))*86400,C126/VLOOKUP(D126,Enums!$G$2:$I$20,2,FALSE)),E126*2),E126*2),"")</f>
-        <v>0006</v>
+        <v>03A5</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
+      <c r="A127" s="8"/>
       <c r="B127" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C127">
         <v>1E-3</v>
@@ -3616,12 +3622,12 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
+      <c r="A128" s="8"/>
       <c r="B128" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C128">
-        <v>1.4E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D128" t="s">
         <v>3</v>
@@ -3632,16 +3638,16 @@
       </c>
       <c r="F128" t="str">
         <f>IF(D128&lt;&gt;"",RIGHT(DEC2HEX(IF(D128="Time",(C128-DATE(1970,1,1))*86400,C128/VLOOKUP(D128,Enums!$G$2:$I$20,2,FALSE)),E128*2),E128*2),"")</f>
-        <v>0009</v>
+        <v>0006</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
+      <c r="A129" s="8"/>
       <c r="B129" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C129">
-        <v>0.41</v>
+        <v>1E-3</v>
       </c>
       <c r="D129" t="s">
         <v>3</v>
@@ -3652,16 +3658,16 @@
       </c>
       <c r="F129" t="str">
         <f>IF(D129&lt;&gt;"",RIGHT(DEC2HEX(IF(D129="Time",(C129-DATE(1970,1,1))*86400,C129/VLOOKUP(D129,Enums!$G$2:$I$20,2,FALSE)),E129*2),E129*2),"")</f>
-        <v>0AAD</v>
+        <v>0006</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
+      <c r="A130" s="8"/>
       <c r="B130" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C130">
-        <v>3.1E-2</v>
+        <v>1.4E-3</v>
       </c>
       <c r="D130" t="s">
         <v>3</v>
@@ -3672,16 +3678,16 @@
       </c>
       <c r="F130" t="str">
         <f>IF(D130&lt;&gt;"",RIGHT(DEC2HEX(IF(D130="Time",(C130-DATE(1970,1,1))*86400,C130/VLOOKUP(D130,Enums!$G$2:$I$20,2,FALSE)),E130*2),E130*2),"")</f>
-        <v>00CE</v>
+        <v>0009</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
+      <c r="A131" s="8"/>
       <c r="B131" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C131">
-        <v>1E-3</v>
+        <v>0.41</v>
       </c>
       <c r="D131" t="s">
         <v>3</v>
@@ -3692,92 +3698,132 @@
       </c>
       <c r="F131" t="str">
         <f>IF(D131&lt;&gt;"",RIGHT(DEC2HEX(IF(D131="Time",(C131-DATE(1970,1,1))*86400,C131/VLOOKUP(D131,Enums!$G$2:$I$20,2,FALSE)),E131*2),E131*2),"")</f>
+        <v>0AAD</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="8"/>
+      <c r="B132" t="s">
+        <v>175</v>
+      </c>
+      <c r="C132">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" s="4">
+        <f>IF(D132&lt;&gt;"",VLOOKUP(D132,Enums!$G$2:$I$20,3,FALSE),"")</f>
+        <v>2</v>
+      </c>
+      <c r="F132" t="str">
+        <f>IF(D132&lt;&gt;"",RIGHT(DEC2HEX(IF(D132="Time",(C132-DATE(1970,1,1))*86400,C132/VLOOKUP(D132,Enums!$G$2:$I$20,2,FALSE)),E132*2),E132*2),"")</f>
+        <v>00CE</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="8"/>
+      <c r="B133" t="s">
+        <v>176</v>
+      </c>
+      <c r="C133">
+        <v>1E-3</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="4">
+        <f>IF(D133&lt;&gt;"",VLOOKUP(D133,Enums!$G$2:$I$20,3,FALSE),"")</f>
+        <v>2</v>
+      </c>
+      <c r="F133" t="str">
+        <f>IF(D133&lt;&gt;"",RIGHT(DEC2HEX(IF(D133="Time",(C133-DATE(1970,1,1))*86400,C133/VLOOKUP(D133,Enums!$G$2:$I$20,2,FALSE)),E133*2),E133*2),"")</f>
         <v>0006</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
-      <c r="B132" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+      <c r="B134" t="s">
         <v>224</v>
       </c>
-      <c r="C132">
+      <c r="C134">
         <f>'Switching States'!E1</f>
         <v>22726</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D134" t="s">
         <v>49</v>
       </c>
-      <c r="E132" s="4">
-        <f>IF(D132&lt;&gt;"",VLOOKUP(D132,Enums!$G$2:$I$20,3,FALSE),"")</f>
-        <v>2</v>
-      </c>
-      <c r="F132" t="str">
-        <f>IF(D132&lt;&gt;"",RIGHT(DEC2HEX(IF(D132="Time",(C132-DATE(1970,1,1))*86400,C132/VLOOKUP(D132,Enums!$G$2:$I$20,2,FALSE)),E132*2),E132*2),"")</f>
+      <c r="E134" s="4">
+        <f>IF(D134&lt;&gt;"",VLOOKUP(D134,Enums!$G$2:$I$20,3,FALSE),"")</f>
+        <v>2</v>
+      </c>
+      <c r="F134" t="str">
+        <f>IF(D134&lt;&gt;"",RIGHT(DEC2HEX(IF(D134="Time",(C134-DATE(1970,1,1))*86400,C134/VLOOKUP(D134,Enums!$G$2:$I$20,2,FALSE)),E134*2),E134*2),"")</f>
         <v>58C6</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
-      <c r="B133" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
+      <c r="B135" t="s">
         <v>177</v>
       </c>
-      <c r="C133">
+      <c r="C135">
         <f>'Switching States'!K1</f>
         <v>491115665606</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D135" t="s">
         <v>63</v>
       </c>
-      <c r="E133" s="4">
-        <f>IF(D133&lt;&gt;"",VLOOKUP(D133,Enums!$G$2:$I$20,3,FALSE),"")</f>
+      <c r="E135" s="4">
+        <f>IF(D135&lt;&gt;"",VLOOKUP(D135,Enums!$G$2:$I$20,3,FALSE),"")</f>
         <v>5</v>
       </c>
-      <c r="F133" t="str">
-        <f>IF(D133&lt;&gt;"",RIGHT(DEC2HEX(IF(D133="Time",(C133-DATE(1970,1,1))*86400,C133/VLOOKUP(D133,Enums!$G$2:$I$20,2,FALSE)),E133*2),E133*2),"")</f>
+      <c r="F135" t="str">
+        <f>IF(D135&lt;&gt;"",RIGHT(DEC2HEX(IF(D135="Time",(C135-DATE(1970,1,1))*86400,C135/VLOOKUP(D135,Enums!$G$2:$I$20,2,FALSE)),E135*2),E135*2),"")</f>
         <v>7258C658C6</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
-      <c r="B134" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+      <c r="B136" t="s">
         <v>180</v>
       </c>
-      <c r="C134">
+      <c r="C136">
         <f>'Switching States'!Q1</f>
         <v>6342</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D136" t="s">
         <v>49</v>
       </c>
-      <c r="E134" s="4">
-        <f>IF(D134&lt;&gt;"",VLOOKUP(D134,Enums!$G$2:$I$20,3,FALSE),"")</f>
-        <v>2</v>
-      </c>
-      <c r="F134" t="str">
-        <f>IF(D134&lt;&gt;"",RIGHT(DEC2HEX(IF(D134="Time",(C134-DATE(1970,1,1))*86400,C134/VLOOKUP(D134,Enums!$G$2:$I$20,2,FALSE)),E134*2),E134*2),"")</f>
+      <c r="E136" s="4">
+        <f>IF(D136&lt;&gt;"",VLOOKUP(D136,Enums!$G$2:$I$20,3,FALSE),"")</f>
+        <v>2</v>
+      </c>
+      <c r="F136" t="str">
+        <f>IF(D136&lt;&gt;"",RIGHT(DEC2HEX(IF(D136="Time",(C136-DATE(1970,1,1))*86400,C136/VLOOKUP(D136,Enums!$G$2:$I$20,2,FALSE)),E136*2),E136*2),"")</f>
         <v>18C6</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>40</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C137" s="4">
         <v>0</v>
       </c>
-      <c r="E135" s="4">
-        <f>4-MOD(C6,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F135" t="str">
-        <f>DEC2HEX(C135,E135*2)</f>
-        <v>0000</v>
+      <c r="E137" s="4">
+        <f>MOD(4-MOD(C6,4), 4)</f>
+        <v>0</v>
+      </c>
+      <c r="F137" t="str">
+        <f>IF(E137=0, "",DEC2HEX(C137,E137*2))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A43:A72"/>
-    <mergeCell ref="A73:A134"/>
+    <mergeCell ref="A73:A136"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A7:A17"/>
@@ -3805,7 +3851,7 @@
           <x14:formula1>
             <xm:f>Enums!$G$2:$G$20</xm:f>
           </x14:formula1>
-          <xm:sqref>D7:D134</xm:sqref>
+          <xm:sqref>D7:D136</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3842,50 +3888,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1">
         <f>MAX(E4:E40)</f>
         <v>22726</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
       <c r="K1">
         <f>MAX(K4:K40)</f>
         <v>491115665606</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
       <c r="Q1">
         <f>MAX(Q4:Q40)</f>
         <v>6342</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/CougSat1-Ground/test/TelemetryPacketCalculator.xlsx
+++ b/CougSat1-Ground/test/TelemetryPacketCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\GitHub\CougSat1-Software\CougSat1-Ground\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623717E3-8F0A-4460-ABDC-D96847F70352}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9418F541-460E-4160-8193-73417A2A0EEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{2B14A9BF-534B-4EED-9B86-7C2EE2D06168}"/>
   </bookViews>
@@ -1106,8 +1106,8 @@
   <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E137" sqref="E137"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C19" s="7">
         <f ca="1">NOW()</f>
-        <v>43457.758848379628</v>
+        <v>43458.469142245369</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="F19" t="str">
         <f ca="1">IF(D19&lt;&gt;"",RIGHT(DEC2HEX(IF(D19="Time",(C19-DATE(1970,1,1))*86400,C19/VLOOKUP(D19,Enums!$G$2:$I$20,2,FALSE)),E19*2),E19*2),"")</f>
-        <v>5C1FD01C</v>
+        <v>5C20BFD5</v>
       </c>
       <c r="H19" s="5"/>
     </row>
